--- a/Flower pollination algorithm/FPA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/FPA/Data/testdata.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/FPA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94DFD7-59DD-4A4C-80A5-702BEC97760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D64EE-D502-904C-92CE-BB65E03300EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fun1" sheetId="1" r:id="rId1"/>
+    <sheet name="fun2" sheetId="2" r:id="rId2"/>
+    <sheet name="fun3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -407,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -417,57 +419,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1"/>
+      <c r="A1">
+        <v>68.092119151015822</v>
+      </c>
+      <c r="B1">
+        <v>1.5267429351806641</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2"/>
+      <c r="A2">
+        <v>68.335961199437847</v>
+      </c>
+      <c r="B2">
+        <v>1.5373601913452151</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3"/>
+      <c r="A3">
+        <v>53.897758231811039</v>
+      </c>
+      <c r="B3">
+        <v>1.503318071365356</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4"/>
+      <c r="A4">
+        <v>50.016109742614361</v>
+      </c>
+      <c r="B4">
+        <v>1.5091538429260249</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5"/>
+      <c r="A5">
+        <v>49.60934729301831</v>
+      </c>
+      <c r="B5">
+        <v>1.506330728530884</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6"/>
+      <c r="A6">
+        <v>63.501004619683698</v>
+      </c>
+      <c r="B6">
+        <v>1.51250696182251</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="1">
+        <v>68.329031949058617</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.543087244033813</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="1">
+        <v>64.707600503044816</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.5179083347320561</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1">
+        <v>59.795633647517683</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.5215690135955811</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="1">
+        <v>61.010981548798362</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.518465042114258</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11"/>
+      <c r="A11">
+        <v>48.154640095966244</v>
+      </c>
+      <c r="B11">
+        <v>1.51896595954895</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12"/>
+      <c r="A12">
+        <v>56.877611803102283</v>
+      </c>
+      <c r="B12">
+        <v>1.520505905151367</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13"/>
+      <c r="A13">
+        <v>55.507033966192452</v>
+      </c>
+      <c r="B13">
+        <v>1.545268058776855</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14"/>
+      <c r="A14">
+        <v>41.219261667197742</v>
+      </c>
+      <c r="B14">
+        <v>1.5217161178588869</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15"/>
+      <c r="A15">
+        <v>53.997352083609137</v>
+      </c>
+      <c r="B15">
+        <v>1.5220379829406741</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16"/>
@@ -483,6 +556,274 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>16.517175284451231</v>
+      </c>
+      <c r="B1">
+        <v>1.595568895339966</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>7.2432645626005483</v>
+      </c>
+      <c r="B2">
+        <v>1.610347986221313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>9.081477555297802</v>
+      </c>
+      <c r="B3">
+        <v>1.5804488658905029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>9.8282945638977246</v>
+      </c>
+      <c r="B4">
+        <v>1.588868141174316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>8.834707399672574</v>
+      </c>
+      <c r="B5">
+        <v>1.583508968353271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>8.2808456490490716</v>
+      </c>
+      <c r="B6">
+        <v>1.5839371681213379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>10.161495664116631</v>
+      </c>
+      <c r="B7">
+        <v>1.605079174041748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>12.54516392425626</v>
+      </c>
+      <c r="B8">
+        <v>1.5874571800231929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>7.9040759965584657</v>
+      </c>
+      <c r="B9">
+        <v>1.5859272480010991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>7.6084678912134729</v>
+      </c>
+      <c r="B10">
+        <v>1.5872230529785161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10.332745295824379</v>
+      </c>
+      <c r="B11">
+        <v>1.5906791687011721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>9.9460749445254208</v>
+      </c>
+      <c r="B12">
+        <v>1.6113488674163821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10.118104987021489</v>
+      </c>
+      <c r="B13">
+        <v>1.5915098190307619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>8.4560300247387215</v>
+      </c>
+      <c r="B14">
+        <v>1.596482038497925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>11.87631115828861</v>
+      </c>
+      <c r="B15">
+        <v>1.5895149707794189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>2695.8211528393558</v>
+      </c>
+      <c r="B1">
+        <v>4.2934160232543954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2840.6340291453471</v>
+      </c>
+      <c r="B2">
+        <v>4.3048350811004639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2019.337668175823</v>
+      </c>
+      <c r="B3">
+        <v>4.3924849033355713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2300.9037246622088</v>
+      </c>
+      <c r="B4">
+        <v>4.4494590759277344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3260.1069753082352</v>
+      </c>
+      <c r="B5">
+        <v>4.3841211795806876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3150.3885459125181</v>
+      </c>
+      <c r="B6">
+        <v>4.3109450340270996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3052.0386122148761</v>
+      </c>
+      <c r="B7">
+        <v>4.2563347816467294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>1632.897732346242</v>
+      </c>
+      <c r="B8">
+        <v>4.1882109642028809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2985.6162238227762</v>
+      </c>
+      <c r="B9">
+        <v>4.1825430393218994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2715.8383725613689</v>
+      </c>
+      <c r="B10">
+        <v>4.181847095489502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>3139.6554777606202</v>
+      </c>
+      <c r="B11">
+        <v>4.1778190135955811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2706.7739863294119</v>
+      </c>
+      <c r="B12">
+        <v>4.2103238105773926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2599.9298967659201</v>
+      </c>
+      <c r="B13">
+        <v>4.1828560829162598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3147.7985372556591</v>
+      </c>
+      <c r="B14">
+        <v>4.1912672519683838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>3126.2074664920801</v>
+      </c>
+      <c r="B15">
+        <v>4.2755038738250732</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Flower pollination algorithm/FPA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/FPA/Data/testdata.xlsx
@@ -1,48 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/FPA/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D64EE-D502-904C-92CE-BB65E03300EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fun1" sheetId="1" r:id="rId1"/>
-    <sheet name="fun2" sheetId="2" r:id="rId2"/>
-    <sheet name="fun3" sheetId="3" r:id="rId3"/>
+    <sheet name="fun1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="fun2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="fun3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="fun4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fun5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="fun6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="fun7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,35 +57,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,7 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
@@ -415,418 +477,983 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col width="9.83203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>68.092119151015822</v>
-      </c>
-      <c r="B1">
-        <v>1.5267429351806641</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>68.335961199437847</v>
-      </c>
-      <c r="B2">
-        <v>1.5373601913452151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>53.897758231811039</v>
-      </c>
-      <c r="B3">
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>68.09211915101582</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1.526742935180664</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>68.33596119943785</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.537360191345215</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>53.89775823181104</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>1.503318071365356</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>50.016109742614361</v>
-      </c>
-      <c r="B4">
-        <v>1.5091538429260249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>50.01610974261436</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.509153842926025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>49.60934729301831</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>1.506330728530884</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>63.501004619683698</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>63.5010046196837</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>1.51250696182251</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>68.329031949058617</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>68.32903194905862</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>1.543087244033813</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>64.707600503044816</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.5179083347320561</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>59.795633647517683</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1.5215690135955811</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>61.010981548798362</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>64.70760050304482</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1.517908334732056</v>
+      </c>
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>59.79563364751768</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1.521569013595581</v>
+      </c>
+      <c r="C9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>61.01098154879836</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>1.518465042114258</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>48.154640095966244</v>
-      </c>
-      <c r="B11">
+      <c r="C10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>48.15464009596624</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>1.51896595954895</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>56.877611803102283</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>56.87761180310228</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>1.520505905151367</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>55.507033966192452</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>55.50703396619245</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1.545268058776855</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>41.219261667197742</v>
-      </c>
-      <c r="B14">
-        <v>1.5217161178588869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>53.997352083609137</v>
-      </c>
-      <c r="B15">
-        <v>1.5220379829406741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20"/>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>41.21926166719774</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1.521716117858887</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>53.99735208360914</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1.522037982940674</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="0" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="0" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="0" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>16.517175284451231</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>16.51717528445123</v>
+      </c>
+      <c r="B1" s="0" t="n">
         <v>1.595568895339966</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>7.2432645626005483</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>7.243264562600548</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1.610347986221313</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>9.081477555297802</v>
       </c>
-      <c r="B3">
-        <v>1.5804488658905029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>9.8282945638977246</v>
-      </c>
-      <c r="B4">
+      <c r="B3" s="0" t="n">
+        <v>1.580448865890503</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>9.828294563897725</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>1.588868141174316</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>8.834707399672574</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>1.583508968353271</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>8.2808456490490716</v>
-      </c>
-      <c r="B6">
-        <v>1.5839371681213379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>10.161495664116631</v>
-      </c>
-      <c r="B7">
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>8.280845649049072</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.583937168121338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>10.16149566411663</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>1.605079174041748</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>12.54516392425626</v>
       </c>
-      <c r="B8">
-        <v>1.5874571800231929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>7.9040759965584657</v>
-      </c>
-      <c r="B9">
-        <v>1.5859272480010991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>7.6084678912134729</v>
-      </c>
-      <c r="B10">
-        <v>1.5872230529785161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10.332745295824379</v>
-      </c>
-      <c r="B11">
-        <v>1.5906791687011721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>9.9460749445254208</v>
-      </c>
-      <c r="B12">
-        <v>1.6113488674163821</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>10.118104987021489</v>
-      </c>
-      <c r="B13">
-        <v>1.5915098190307619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>8.4560300247387215</v>
-      </c>
-      <c r="B14">
+      <c r="B8" s="0" t="n">
+        <v>1.587457180023193</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>7.904075996558466</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.585927248001099</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>7.608467891213473</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1.587223052978516</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>10.33274529582438</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1.590679168701172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>9.946074944525421</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1.611348867416382</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>10.11810498702149</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.591509819030762</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>8.456030024738721</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>1.596482038497925</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>11.87631115828861</v>
       </c>
-      <c r="B15">
-        <v>1.5895149707794189</v>
+      <c r="B15" s="0" t="n">
+        <v>1.589514970779419</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>2695.8211528393558</v>
-      </c>
-      <c r="B1">
-        <v>4.2934160232543954</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2840.6340291453471</v>
-      </c>
-      <c r="B2">
-        <v>4.3048350811004639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>2695.821152839356</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>4.293416023254395</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>2840.634029145347</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4.304835081100464</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2019.337668175823</v>
       </c>
-      <c r="B3">
-        <v>4.3924849033355713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2300.9037246622088</v>
-      </c>
-      <c r="B4">
-        <v>4.4494590759277344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3260.1069753082352</v>
-      </c>
-      <c r="B5">
-        <v>4.3841211795806876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>3150.3885459125181</v>
-      </c>
-      <c r="B6">
-        <v>4.3109450340270996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3052.0386122148761</v>
-      </c>
-      <c r="B7">
-        <v>4.2563347816467294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="B3" s="0" t="n">
+        <v>4.392484903335571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2300.903724662209</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4.449459075927734</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>3260.106975308235</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4.384121179580688</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>3150.388545912518</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4.3109450340271</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>3052.038612214876</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4.256334781646729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>1632.897732346242</v>
       </c>
-      <c r="B8">
-        <v>4.1882109642028809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2985.6162238227762</v>
-      </c>
-      <c r="B9">
-        <v>4.1825430393218994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2715.8383725613689</v>
-      </c>
-      <c r="B10">
+      <c r="B8" s="0" t="n">
+        <v>4.188210964202881</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>2985.616223822776</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4.182543039321899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>2715.838372561369</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>4.181847095489502</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>3139.6554777606202</v>
-      </c>
-      <c r="B11">
-        <v>4.1778190135955811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2706.7739863294119</v>
-      </c>
-      <c r="B12">
-        <v>4.2103238105773926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2599.9298967659201</v>
-      </c>
-      <c r="B13">
-        <v>4.1828560829162598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>3147.7985372556591</v>
-      </c>
-      <c r="B14">
-        <v>4.1912672519683838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>3126.2074664920801</v>
-      </c>
-      <c r="B15">
-        <v>4.2755038738250732</v>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3139.65547776062</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4.177819013595581</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>2706.773986329412</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4.210323810577393</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>2599.92989676592</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4.18285608291626</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>3147.798537255659</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4.191267251968384</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>3126.20746649208</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4.275503873825073</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>31.51170025941862</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1.500217914581299</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>33.02682609259704</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.551062822341919</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>36.42944953721772</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1.487803936004639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>35.33630655842207</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.490456104278564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>34.540538962869</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1.48877477645874</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>34.09286716181959</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.491528987884521</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>33.77515624590006</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1.513051748275757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>30.00079980319062</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.500963926315308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>34.47401403855838</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.496626138687134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>38.02684425657566</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1.494585037231445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>33.07064781967527</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1.498166084289551</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>36.48982459175848</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1.527097940444946</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>37.93382764981253</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.51013970375061</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>33.52719431665609</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1.503848075866699</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>35.90151719350524</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1.50045371055603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>6437.359471547533</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1.715402841567993</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>3852.779291376</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.717841863632202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>4658.337136199915</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1.726114988327026</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3671.391947132177</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.722645998001099</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>3121.599157178244</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1.766774892807007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5276.882683408158</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.732903957366943</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>2392.224578339006</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1.755025148391724</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>4007.92024127241</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.730542898178101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>3523.586242708941</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.728729724884033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>4611.01997750687</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1.726806163787842</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3512.637585611072</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1.724720001220703</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>5084.30699278166</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1.784710168838501</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>3883.271539890158</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.735476016998291</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>5166.366362118059</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1.733364105224609</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>4713.701753967266</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1.726863861083984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>47.37533630308602</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1.603713035583496</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>71.49817794343073</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.57610297203064</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>56.24358329858231</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1.550014972686768</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>60.04664155656034</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.539999008178711</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>54.11754734678978</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1.54414176940918</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>61.15267665226527</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.547955989837646</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>73.42416097990082</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1.569309949874878</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>50.16962875965697</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.548009157180786</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>64.01043152808242</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.550487995147705</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>63.35624516947026</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1.553951025009155</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>46.78471500018941</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1.55161714553833</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>47.66319536303345</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1.57605504989624</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>45.64983280712764</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.558435201644897</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>45.0915107973749</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1.553297996520996</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>57.73078656373583</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1.554574251174927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>0.4796031212195384</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1.619074821472168</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.7784155080108576</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.608495950698853</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.6245438419053091</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1.603662967681885</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.5942850520734912</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.603451013565063</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.7220343914757061</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1.609789371490479</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.681656792532025</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.61192798614502</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.6484507212539508</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1.632150888442993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.5766149048965582</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.613072872161865</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.6804599365953512</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.610881090164185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>0.6976056294563381</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1.612436294555664</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>0.701957888993172</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1.609363317489624</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>0.5025881752208006</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1.63420581817627</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>0.5630220664852501</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.612833023071289</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>0.672326490218763</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1.612093210220337</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.6732291539768075</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.609551191329956</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Flower pollination algorithm/FPA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/FPA/Data/testdata.xlsx
@@ -13,6 +13,9 @@
     <sheet name="fun5" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="fun6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="fun7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fun8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="fun9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="fun10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -624,6 +627,145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>3.43677423528321</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>8.843271970748901</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>4.096241006084259</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>8.874131917953491</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>3.612880629475655</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8.838211059570312</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3.235393419173406</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8.835701942443848</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>6.037293289697317</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8.824558734893799</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>4.090517361810935</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8.846441984176636</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>3.933114016890937</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8.845212936401367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>6.400409171705597</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8.861817121505737</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>3.2060289277313</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9.455236196517944</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>4.773574335745828</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9.197191953659058</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3.255942543169024</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8.880151987075806</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>3.30170296302525</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8.913634061813354</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>3.471499869495692</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>8.964712142944336</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>4.748952253250234</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8.96025824546814</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.87044677217963</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.052615165710449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1446,11 +1588,289 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="0" t="n">
         <v>0.6732291539768075</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>1.609551191329956</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>-10384.29975895273</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>7.760809898376465</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>-10519.241013772</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7.813842058181763</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>-10525.76759952747</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>7.832250833511353</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>-10274.2228802385</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>7.809566020965576</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>-10672.38494197669</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>7.855309963226318</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>-10736.20214191854</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7.835109949111938</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>-10138.80063032789</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7.87595009803772</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>-10596.37355184713</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7.823029279708862</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>-10416.94317468785</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>7.811918020248413</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>-10490.99573182758</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7.8423171043396</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>-10155.0959301633</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>7.829962968826294</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>-10257.20358749512</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7.854152917861938</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>-10257.9093570504</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7.814457893371582</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>-10645.27993003072</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>7.91150426864624</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>-10550.56121412685</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>7.860370874404907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>33.74848339888581</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>7.940039396286011</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>31.45308124917165</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7.966434001922607</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>32.06253827018463</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>7.983262300491333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>34.2777688446559</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>7.965706825256348</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>33.70321655315018</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>7.97694206237793</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>29.6318548188533</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7.980882167816162</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>33.631177351323</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7.976440906524658</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>33.52073500772894</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7.964466333389282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>30.79457965331272</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8.069363832473755</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>28.485540001473</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>8.030853986740112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>35.14078733412094</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8.08433198928833</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>33.92418821218382</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8.013872861862183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>32.55779459846121</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7.978303909301758</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>30.22976828179043</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8.031732797622681</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>31.64072083252779</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>8.017654180526733</v>
       </c>
     </row>
   </sheetData>

--- a/Flower pollination algorithm/FPA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/FPA/Data/testdata.xlsx
@@ -16,6 +16,9 @@
     <sheet name="fun8" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="fun9" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="fun10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="fun11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="fun12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="fun13" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -754,11 +757,428 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>3.87044677217963</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9.052615165710449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>4.816217569203474e-08</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>8.227105140686035</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>2.655604913748277e-08</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>8.287348985671997</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2.103506202555394e-08</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8.273356199264526</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2.950569288895366e-08</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8.246584892272949</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1.022812167184028e-07</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8.288486957550049</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>1.218101480793266e-07</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8.285236120223999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>3.979749274574118e-08</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8.268435955047607</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>2.464014847713969e-08</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8.277814865112305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>2.835994927785634e-08</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8.278057813644409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>6.87667588428198e-08</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>8.282964944839478</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3.843282692095329e-08</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8.30534815788269</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>3.145001370441491e-08</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8.272943019866943</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>2.280923039332805e-08</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>8.240144014358521</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>2.15497992783753e-08</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8.301412105560303</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>4.512759288477497e-08</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>8.292688131332397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>0.1541208474645738</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>11.62718367576599</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.01580902386223563</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>11.70448207855225</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.04809526292094367</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>11.64896488189697</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.06390299007827227</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>11.63127517700195</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.141458283884901</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>11.68821668624878</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.1978542360227636</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>11.6658821105957</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.03151048237252491</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>11.73345494270325</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.1463617143070792</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>11.67721390724182</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.02347974474765983</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>11.67104411125183</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>0.1638414421507943</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>11.70187425613403</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>0.09636673238166385</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11.67169094085693</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>0.07898344658823427</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11.66811895370483</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>0.01188627352929631</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>11.65464997291565</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>0.06480117290610887</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11.61693596839905</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>0.08225982035075891</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>11.69497799873352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>8.35188687005855</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>11.2400279045105</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>6.125956567181667</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>11.31283402442932</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2.946791711016957</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>11.28646397590637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>6.21237200811462</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>11.32148313522339</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>7.902983170555891</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>11.37703609466553</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>6.053654338725444</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>11.32408785820007</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>9.382318136082178</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>11.32381510734558</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>5.86680651115556</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>11.3255660533905</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>7.221279923639123</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>11.31074285507202</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>8.061751017887538</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>11.35698080062866</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3.506319381307565</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11.3246431350708</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>7.625519824691388</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11.30599093437195</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>13.75221223639455</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>11.32343411445618</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>6.730603179028844</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11.42276406288147</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="n">
-        <v>3.87044677217963</v>
+        <v>6.135220067471528</v>
       </c>
       <c r="B15" t="n">
-        <v>9.052615165710449</v>
+        <v>11.34549832344055</v>
       </c>
     </row>
   </sheetData>
